--- a/old/COVID-19_20200322.xlsx
+++ b/old/COVID-19_20200322.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\tmp\parse_COVID-19\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0FCD19-DF08-412A-BC5A-FCA383AC1B0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13C707D-53B6-45EE-89F8-FE3B734F81B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="735" windowWidth="26850" windowHeight="13185" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lazio" sheetId="1" r:id="rId1"/>
@@ -330,13 +330,31 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" sz="1800"/>
-              <a:t>deceduti</a:t>
+              <a:t>LOMBARDIA</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800"/>
+              <a:t>totale deceduti</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" sz="1800" baseline="0"/>
-              <a:t>(i) / deceduti(i-10)</a:t>
+              <a:t>(i) / totale deceduti(i-10)</a:t>
             </a:r>
-            <a:endParaRPr lang="it-IT" sz="1800"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" baseline="0"/>
+              <a:t>total deceased(i) / total deceased (i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -608,7 +626,7 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -621,12 +639,44 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                  <a:rPr lang="it-IT" sz="1400" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>Giorni trascorsi dal 12/03/2020</a:t>
                 </a:r>
-                <a:endParaRPr lang="it-IT">
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Days after March 12, 2020</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1200">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
@@ -659,7 +709,7 @@
                 <a:buFontTx/>
                 <a:buNone/>
                 <a:tabLst/>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -696,7 +746,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -714,6 +764,7 @@
         <c:crossAx val="181561599"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="181561599"/>
@@ -752,7 +803,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2290,7 +2341,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0F11E112-08F7-4E80-BD56-C567FDF1FE23}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2301,7 +2352,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9297412" cy="6069027"/>
+    <xdr:ext cx="9303297" cy="6076293"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
